--- a/biology/Médecine/Inversion_(médecine)/Inversion_(médecine).xlsx
+++ b/biology/Médecine/Inversion_(médecine)/Inversion_(médecine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inversion_(m%C3%A9decine)</t>
+          <t>Inversion_(médecine)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mouvement d'inversion du pied, du latin in (dans) et versio (retournement), est le mouvement complexe qui oriente la plante du pied vers l’intérieur du corps. On le réalise par exemple quand on ramène sa plante de pied face à son visage pour enlever une écharde.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inversion_(m%C3%A9decine)</t>
+          <t>Inversion_(médecine)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’inversion est la combinaison simultanée de trois mouvements de l’arrière-pied et de la cheville, qui sont :
 supination : soulèvement du bord interne (médial) du pied.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Inversion_(m%C3%A9decine)</t>
+          <t>Inversion_(médecine)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Anatomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L’inversion implique l’arrière-pied par les articulations suivantes :
 subtalaire ;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Inversion_(m%C3%A9decine)</t>
+          <t>Inversion_(médecine)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,7 +600,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une entorse des ligaments collatéraux fibulaires de la cheville peut survenir en cas d’inversion brutale.
 Le pied bot varus équin est une fixation pathologique du pied en inversion.
